--- a/Charts & Graphs/GreedyApproximation.xlsx
+++ b/Charts & Graphs/GreedyApproximation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mylox\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Works 2015\mars-workspace\Offline01\Charts &amp; Graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -235,37 +235,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.4133</c:v>
+                  <c:v>0.4783</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16170000000000001</c:v>
+                  <c:v>0.24959999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25480000000000003</c:v>
+                  <c:v>0.27179999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.51</c:v>
+                  <c:v>0.63880000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96650000000000003</c:v>
+                  <c:v>1.1554</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.52890000000000004</c:v>
+                  <c:v>0.58320000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.42330000000000001</c:v>
+                  <c:v>0.12809999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.72E-2</c:v>
+                  <c:v>7.8700000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.17580000000000001</c:v>
+                  <c:v>0.1409</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1285</c:v>
+                  <c:v>0.10730000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.11749999999999999</c:v>
+                  <c:v>0.1129</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -280,11 +280,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1093373232"/>
-        <c:axId val="1093373776"/>
+        <c:axId val="-891825008"/>
+        <c:axId val="-891819024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1093373232"/>
+        <c:axId val="-891825008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -397,12 +397,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1093373776"/>
+        <c:crossAx val="-891819024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1093373776"/>
+        <c:axId val="-891819024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -515,7 +515,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1093373232"/>
+        <c:crossAx val="-891825008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -781,37 +781,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.4133</c:v>
+                  <c:v>0.4783</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16170000000000001</c:v>
+                  <c:v>0.24959999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25480000000000003</c:v>
+                  <c:v>0.27179999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.51</c:v>
+                  <c:v>0.63880000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96650000000000003</c:v>
+                  <c:v>1.1554</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.52890000000000004</c:v>
+                  <c:v>0.58320000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.42330000000000001</c:v>
+                  <c:v>0.12809999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.72E-2</c:v>
+                  <c:v>7.8700000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.17580000000000001</c:v>
+                  <c:v>0.1409</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1285</c:v>
+                  <c:v>0.10730000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.11749999999999999</c:v>
+                  <c:v>0.1129</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -828,11 +828,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1093207728"/>
-        <c:axId val="1218689808"/>
+        <c:axId val="-891821744"/>
+        <c:axId val="-891821200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1093207728"/>
+        <c:axId val="-891821744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -875,7 +875,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1218689808"/>
+        <c:crossAx val="-891821200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -883,7 +883,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1218689808"/>
+        <c:axId val="-891821200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -934,7 +934,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1093207728"/>
+        <c:crossAx val="-891821744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2430,7 +2430,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>0.4133</v>
+        <v>0.4783</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
@@ -2438,7 +2438,7 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>0.16170000000000001</v>
+        <v>0.24959999999999999</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
@@ -2446,7 +2446,7 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>0.25480000000000003</v>
+        <v>0.27179999999999999</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
@@ -2454,7 +2454,7 @@
         <v>7</v>
       </c>
       <c r="D7">
-        <v>0.51</v>
+        <v>0.63880000000000003</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
@@ -2462,7 +2462,7 @@
         <v>8</v>
       </c>
       <c r="D8">
-        <v>0.96650000000000003</v>
+        <v>1.1554</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
@@ -2470,7 +2470,7 @@
         <v>9</v>
       </c>
       <c r="D9">
-        <v>0.52890000000000004</v>
+        <v>0.58320000000000005</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
@@ -2478,7 +2478,7 @@
         <v>10</v>
       </c>
       <c r="D10">
-        <v>0.42330000000000001</v>
+        <v>0.12809999999999999</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
@@ -2486,7 +2486,7 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>8.72E-2</v>
+        <v>7.8700000000000006E-2</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
@@ -2494,7 +2494,7 @@
         <v>12</v>
       </c>
       <c r="D12">
-        <v>0.17580000000000001</v>
+        <v>0.1409</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.25">
@@ -2502,7 +2502,7 @@
         <v>13</v>
       </c>
       <c r="D13">
-        <v>0.1285</v>
+        <v>0.10730000000000001</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.25">
@@ -2510,7 +2510,7 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>0.11749999999999999</v>
+        <v>0.1129</v>
       </c>
     </row>
   </sheetData>
